--- a/INTLINE/data/134/DEUSTATIS/old/Construction price indices by civil engineering quarters.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/old/Construction price indices by civil engineering quarters.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6838" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6799" uniqueCount="100">
   <si>
     <t>Construction price indices: Germany, reference month per
 quarter, indices including/excluding turnover tax, civil
@@ -308,16 +308,13 @@
     <t>2021</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>______________</t>
   </si>
   <si>
     <t>Until 1990: Former territory of the Federal Republic.</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 10:48:37</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-01 / 03:24:20</t>
   </si>
 </sst>
 </file>
@@ -49742,59 +49739,59 @@
       <c r="B1020" t="s" s="13">
         <v>27</v>
       </c>
-      <c r="C1020" t="s" s="10">
-        <v>97</v>
-      </c>
-      <c r="D1020" t="s" s="10">
-        <v>97</v>
+      <c r="C1020" t="n" s="10">
+        <v>128.0</v>
+      </c>
+      <c r="D1020" t="n" s="10">
+        <v>131.0</v>
       </c>
       <c r="E1020" t="s" s="10">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="F1020" t="s" s="10">
-        <v>97</v>
-      </c>
-      <c r="G1020" t="s" s="10">
-        <v>97</v>
-      </c>
-      <c r="H1020" t="s" s="10">
-        <v>97</v>
-      </c>
-      <c r="I1020" t="s" s="10">
-        <v>97</v>
-      </c>
-      <c r="J1020" t="s" s="10">
-        <v>97</v>
-      </c>
-      <c r="K1020" t="s" s="10">
-        <v>97</v>
-      </c>
-      <c r="L1020" t="s" s="10">
-        <v>97</v>
-      </c>
-      <c r="M1020" t="s" s="10">
-        <v>97</v>
+        <v>28</v>
+      </c>
+      <c r="G1020" t="n" s="10">
+        <v>134.6</v>
+      </c>
+      <c r="H1020" t="n" s="10">
+        <v>127.9</v>
+      </c>
+      <c r="I1020" t="n" s="10">
+        <v>132.3</v>
+      </c>
+      <c r="J1020" t="n" s="10">
+        <v>122.7</v>
+      </c>
+      <c r="K1020" t="n" s="10">
+        <v>126.5</v>
+      </c>
+      <c r="L1020" t="n" s="10">
+        <v>128.4</v>
+      </c>
+      <c r="M1020" t="n" s="10">
+        <v>134.3</v>
       </c>
       <c r="N1020" t="s" s="10">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="O1020" t="s" s="10">
-        <v>97</v>
-      </c>
-      <c r="P1020" t="s" s="10">
-        <v>97</v>
-      </c>
-      <c r="Q1020" t="s" s="10">
-        <v>97</v>
+        <v>28</v>
+      </c>
+      <c r="P1020" t="n" s="10">
+        <v>138.9</v>
+      </c>
+      <c r="Q1020" t="n" s="10">
+        <v>124.0</v>
       </c>
       <c r="R1020" t="s" s="10">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="S1020" t="s" s="10">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="T1020" t="s" s="10">
-        <v>97</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1021" ht="33.75" customHeight="true">
@@ -49995,59 +49992,59 @@
       <c r="B1025" t="s" s="13">
         <v>27</v>
       </c>
-      <c r="C1025" t="s" s="10">
-        <v>97</v>
-      </c>
-      <c r="D1025" t="s" s="10">
-        <v>97</v>
-      </c>
-      <c r="E1025" t="s" s="10">
-        <v>97</v>
-      </c>
-      <c r="F1025" t="s" s="10">
-        <v>97</v>
-      </c>
-      <c r="G1025" t="s" s="10">
-        <v>97</v>
-      </c>
-      <c r="H1025" t="s" s="10">
-        <v>97</v>
+      <c r="C1025" t="n" s="10">
+        <v>134.1</v>
+      </c>
+      <c r="D1025" t="n" s="10">
+        <v>133.3</v>
+      </c>
+      <c r="E1025" t="n" s="10">
+        <v>133.8</v>
+      </c>
+      <c r="F1025" t="n" s="10">
+        <v>133.8</v>
+      </c>
+      <c r="G1025" t="n" s="10">
+        <v>134.5</v>
+      </c>
+      <c r="H1025" t="n" s="10">
+        <v>130.5</v>
       </c>
       <c r="I1025" t="s" s="10">
-        <v>97</v>
-      </c>
-      <c r="J1025" t="s" s="10">
-        <v>97</v>
-      </c>
-      <c r="K1025" t="s" s="10">
-        <v>97</v>
-      </c>
-      <c r="L1025" t="s" s="10">
-        <v>97</v>
-      </c>
-      <c r="M1025" t="s" s="10">
-        <v>97</v>
-      </c>
-      <c r="N1025" t="s" s="10">
-        <v>97</v>
-      </c>
-      <c r="O1025" t="s" s="10">
-        <v>97</v>
-      </c>
-      <c r="P1025" t="s" s="10">
-        <v>97</v>
-      </c>
-      <c r="Q1025" t="s" s="10">
-        <v>97</v>
-      </c>
-      <c r="R1025" t="s" s="10">
-        <v>97</v>
-      </c>
-      <c r="S1025" t="s" s="10">
-        <v>97</v>
-      </c>
-      <c r="T1025" t="s" s="10">
-        <v>97</v>
+        <v>28</v>
+      </c>
+      <c r="J1025" t="n" s="10">
+        <v>126.9</v>
+      </c>
+      <c r="K1025" t="n" s="10">
+        <v>126.8</v>
+      </c>
+      <c r="L1025" t="n" s="10">
+        <v>127.1</v>
+      </c>
+      <c r="M1025" t="n" s="10">
+        <v>135.7</v>
+      </c>
+      <c r="N1025" t="n" s="10">
+        <v>125.5</v>
+      </c>
+      <c r="O1025" t="n" s="10">
+        <v>134.4</v>
+      </c>
+      <c r="P1025" t="n" s="10">
+        <v>139.4</v>
+      </c>
+      <c r="Q1025" t="n" s="10">
+        <v>124.2</v>
+      </c>
+      <c r="R1025" t="n" s="10">
+        <v>120.3</v>
+      </c>
+      <c r="S1025" t="n" s="10">
+        <v>138.3</v>
+      </c>
+      <c r="T1025" t="n" s="10">
+        <v>132.4</v>
       </c>
     </row>
     <row r="1026" ht="33.75" customHeight="true">
@@ -50248,74 +50245,74 @@
       <c r="B1030" t="s" s="13">
         <v>27</v>
       </c>
-      <c r="C1030" t="s" s="10">
-        <v>97</v>
-      </c>
-      <c r="D1030" t="s" s="10">
-        <v>97</v>
-      </c>
-      <c r="E1030" t="s" s="10">
-        <v>97</v>
+      <c r="C1030" t="n" s="10">
+        <v>130.4</v>
+      </c>
+      <c r="D1030" t="n" s="10">
+        <v>128.8</v>
+      </c>
+      <c r="E1030" t="n" s="10">
+        <v>133.8</v>
       </c>
       <c r="F1030" t="s" s="10">
-        <v>97</v>
-      </c>
-      <c r="G1030" t="s" s="10">
-        <v>97</v>
-      </c>
-      <c r="H1030" t="s" s="10">
-        <v>97</v>
-      </c>
-      <c r="I1030" t="s" s="10">
-        <v>97</v>
-      </c>
-      <c r="J1030" t="s" s="10">
-        <v>97</v>
-      </c>
-      <c r="K1030" t="s" s="10">
-        <v>97</v>
-      </c>
-      <c r="L1030" t="s" s="10">
-        <v>97</v>
-      </c>
-      <c r="M1030" t="s" s="10">
-        <v>97</v>
+        <v>28</v>
+      </c>
+      <c r="G1030" t="n" s="10">
+        <v>133.6</v>
+      </c>
+      <c r="H1030" t="n" s="10">
+        <v>128.6</v>
+      </c>
+      <c r="I1030" t="n" s="10">
+        <v>130.7</v>
+      </c>
+      <c r="J1030" t="n" s="10">
+        <v>122.8</v>
+      </c>
+      <c r="K1030" t="n" s="10">
+        <v>125.7</v>
+      </c>
+      <c r="L1030" t="n" s="10">
+        <v>128.4</v>
+      </c>
+      <c r="M1030" t="n" s="10">
+        <v>129.9</v>
       </c>
       <c r="N1030" t="s" s="10">
-        <v>97</v>
-      </c>
-      <c r="O1030" t="s" s="10">
-        <v>97</v>
+        <v>28</v>
+      </c>
+      <c r="O1030" t="n" s="10">
+        <v>133.5</v>
       </c>
       <c r="P1030" t="s" s="10">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="Q1030" t="s" s="10">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="R1030" t="s" s="10">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="S1030" t="s" s="10">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="T1030" t="s" s="10">
-        <v>97</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1031">
       <c r="A1031" t="s" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="1032">
       <c r="A1032" t="s" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="1033">
       <c r="A1033" t="s" s="12">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -50585,7 +50582,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 28.12.21 / 10:48:44&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 01.04.22 / 03:24:26&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>